--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW35.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BrassA-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BrassA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1075,7 @@
         <v>0.9959936810108171</v>
       </c>
       <c r="F13">
-        <v>0.9961624245911979</v>
+        <v>0.9961624245911981</v>
       </c>
       <c r="G13">
         <v>0.9965764334640471</v>
@@ -1102,7 +1102,7 @@
         <v>0.996095845981275</v>
       </c>
       <c r="O13">
-        <v>0.9962326375044487</v>
+        <v>0.9962326375044488</v>
       </c>
       <c r="P13">
         <v>0.9962004125491349</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9969656933655753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.017836229172445</v>
+      </c>
+      <c r="D16">
+        <v>0.9693240780005307</v>
+      </c>
+      <c r="E16">
+        <v>1.001663222238789</v>
+      </c>
+      <c r="F16">
+        <v>0.9890050030055959</v>
+      </c>
+      <c r="G16">
+        <v>1.017836229172445</v>
+      </c>
+      <c r="H16">
+        <v>0.9693240780005307</v>
+      </c>
+      <c r="I16">
+        <v>1.004589774645135</v>
+      </c>
+      <c r="J16">
+        <v>0.989498624285204</v>
+      </c>
+      <c r="K16">
+        <v>1.002788951005242</v>
+      </c>
+      <c r="L16">
+        <v>0.9785036272907998</v>
+      </c>
+      <c r="M16">
+        <v>1.017836229172445</v>
+      </c>
+      <c r="N16">
+        <v>0.9854936501196598</v>
+      </c>
+      <c r="O16">
+        <v>0.9944571331043401</v>
+      </c>
+      <c r="P16">
+        <v>0.9941511887054677</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.017836229172445</v>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW35.xlsx
@@ -1078,7 +1078,7 @@
         <v>0.9959936810108171</v>
       </c>
       <c r="F13">
-        <v>0.9961624245911981</v>
+        <v>0.9961624245911979</v>
       </c>
       <c r="G13">
         <v>0.9965764334640471</v>
@@ -1105,7 +1105,7 @@
         <v>0.996095845981275</v>
       </c>
       <c r="O13">
-        <v>0.9962326375044488</v>
+        <v>0.9962326375044487</v>
       </c>
       <c r="P13">
         <v>0.9962004125491349</v>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.010455999999998</v>
+        <v>1.017836229172445</v>
       </c>
       <c r="D10">
-        <v>0.9488920000000002</v>
+        <v>0.9693240780005307</v>
       </c>
       <c r="E10">
-        <v>1.012724</v>
+        <v>1.001663222238789</v>
       </c>
       <c r="F10">
-        <v>0.9858160000000009</v>
+        <v>0.9890050030055959</v>
       </c>
       <c r="G10">
-        <v>1.010455999999998</v>
+        <v>1.017836229172445</v>
       </c>
       <c r="H10">
-        <v>0.9488920000000002</v>
+        <v>0.9693240780005307</v>
       </c>
       <c r="I10">
-        <v>1.013775999999999</v>
+        <v>1.004589774645135</v>
       </c>
       <c r="J10">
-        <v>0.9916560000000001</v>
+        <v>0.989498624285204</v>
       </c>
       <c r="K10">
-        <v>1.003768</v>
+        <v>1.002788951005242</v>
       </c>
       <c r="L10">
-        <v>0.9714119999999984</v>
+        <v>0.9785036272907998</v>
       </c>
       <c r="M10">
-        <v>1.010455999999998</v>
+        <v>1.017836229172445</v>
       </c>
       <c r="N10">
-        <v>0.9808080000000001</v>
+        <v>0.9854936501196598</v>
       </c>
       <c r="O10">
-        <v>0.9894719999999999</v>
+        <v>0.9944571331043401</v>
       </c>
       <c r="P10">
-        <v>0.9923124999999997</v>
+        <v>0.9941511887054677</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.05</v>
+        <v>1.020144015883654</v>
       </c>
       <c r="D11">
-        <v>0.88</v>
+        <v>0.9572215919138266</v>
       </c>
       <c r="E11">
-        <v>1.03</v>
+        <v>1.005166714207562</v>
       </c>
       <c r="F11">
-        <v>0.97</v>
+        <v>0.98831414608389</v>
       </c>
       <c r="G11">
-        <v>1.05</v>
+        <v>1.020144015883654</v>
       </c>
       <c r="H11">
-        <v>0.88</v>
+        <v>0.9572215919138266</v>
       </c>
       <c r="I11">
-        <v>1.04</v>
+        <v>1.00989829167135</v>
       </c>
       <c r="J11">
-        <v>0.98</v>
+        <v>0.9892642076180564</v>
       </c>
       <c r="K11">
-        <v>1.02</v>
+        <v>1.005527365790839</v>
       </c>
       <c r="L11">
-        <v>0.93</v>
+        <v>0.9711120229335739</v>
       </c>
       <c r="M11">
-        <v>1.05</v>
+        <v>1.020144015883654</v>
       </c>
       <c r="N11">
-        <v>0.9550000000000001</v>
+        <v>0.981194153060694</v>
       </c>
       <c r="O11">
-        <v>0.9824999999999999</v>
+        <v>0.992711617022233</v>
       </c>
       <c r="P11">
-        <v>0.9875</v>
+        <v>0.9933310445128439</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.027383881113601</v>
+        <v>1.019645637901766</v>
       </c>
       <c r="D12">
-        <v>0.9284752195584015</v>
+        <v>0.9579374822829104</v>
       </c>
       <c r="E12">
-        <v>1.0161953855488</v>
+        <v>1.005049799599707</v>
       </c>
       <c r="F12">
-        <v>0.9811515291647975</v>
+        <v>0.9884720965174409</v>
       </c>
       <c r="G12">
-        <v>1.027383881113601</v>
+        <v>1.019645637901766</v>
       </c>
       <c r="H12">
-        <v>0.9284752195584015</v>
+        <v>0.9579374822829104</v>
       </c>
       <c r="I12">
-        <v>1.021377517158403</v>
+        <v>1.009634509719642</v>
       </c>
       <c r="J12">
-        <v>0.9866541541375996</v>
+        <v>0.9894244010561353</v>
       </c>
       <c r="K12">
-        <v>1.010116985446401</v>
+        <v>1.005349057675867</v>
       </c>
       <c r="L12">
-        <v>0.9576835328000003</v>
+        <v>0.9715358126413074</v>
       </c>
       <c r="M12">
-        <v>1.027378607104001</v>
+        <v>1.019645637901766</v>
       </c>
       <c r="N12">
-        <v>0.9723353025536006</v>
+        <v>0.9814936409413089</v>
       </c>
       <c r="O12">
-        <v>0.9883015038463999</v>
+        <v>0.9927762540754561</v>
       </c>
       <c r="P12">
-        <v>0.9911297756160005</v>
+        <v>0.9933810996743468</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9965764334640471</v>
+        <v>1.020022938869257</v>
       </c>
       <c r="D13">
-        <v>0.9961980109517329</v>
+        <v>0.9573756441018982</v>
       </c>
       <c r="E13">
-        <v>0.9959936810108171</v>
+        <v>1.005144256328948</v>
       </c>
       <c r="F13">
-        <v>0.9961624245911979</v>
+        <v>0.9883490077960504</v>
       </c>
       <c r="G13">
-        <v>0.9965764334640471</v>
+        <v>1.020022938869257</v>
       </c>
       <c r="H13">
-        <v>0.9961980109517329</v>
+        <v>0.9573756441018982</v>
       </c>
       <c r="I13">
-        <v>0.9960839101328827</v>
+        <v>1.009820812709095</v>
       </c>
       <c r="J13">
-        <v>0.9963795706054784</v>
+        <v>0.989298553354525</v>
       </c>
       <c r="K13">
-        <v>0.9963138739157494</v>
+        <v>1.005485194842003</v>
       </c>
       <c r="L13">
-        <v>0.9958953957211737</v>
+        <v>0.9712222421150879</v>
       </c>
       <c r="M13">
-        <v>0.9965965520543926</v>
+        <v>1.020022938869257</v>
       </c>
       <c r="N13">
-        <v>0.996095845981275</v>
+        <v>0.9812599502154231</v>
       </c>
       <c r="O13">
-        <v>0.9962326375044487</v>
+        <v>0.9927229617740383</v>
       </c>
       <c r="P13">
-        <v>0.9962004125491349</v>
+        <v>0.993339831264608</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9954271935575174</v>
+        <v>1.010455999999998</v>
       </c>
       <c r="D14">
-        <v>1.000266902656752</v>
+        <v>0.9488920000000002</v>
       </c>
       <c r="E14">
-        <v>0.9961458348532303</v>
+        <v>1.012724</v>
       </c>
       <c r="F14">
-        <v>0.9978621775575182</v>
+        <v>0.9858160000000009</v>
       </c>
       <c r="G14">
-        <v>0.9954271935575174</v>
+        <v>1.010455999999998</v>
       </c>
       <c r="H14">
-        <v>1.000266902656752</v>
+        <v>0.9488920000000002</v>
       </c>
       <c r="I14">
-        <v>0.9958785486955221</v>
+        <v>1.013775999999999</v>
       </c>
       <c r="J14">
-        <v>0.9978057357420825</v>
+        <v>0.9916560000000001</v>
       </c>
       <c r="K14">
-        <v>0.9943564651645692</v>
+        <v>1.003768</v>
       </c>
       <c r="L14">
-        <v>0.9974020236373923</v>
+        <v>0.9714119999999984</v>
       </c>
       <c r="M14">
-        <v>0.9956298958088126</v>
+        <v>1.010455999999998</v>
       </c>
       <c r="N14">
-        <v>0.9982063687549911</v>
+        <v>0.9808080000000001</v>
       </c>
       <c r="O14">
-        <v>0.9974255271562544</v>
+        <v>0.9894719999999999</v>
       </c>
       <c r="P14">
-        <v>0.9968931102330729</v>
+        <v>0.9923124999999997</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9887005782855885</v>
+        <v>1.05</v>
       </c>
       <c r="D15">
-        <v>1.007014768566238</v>
+        <v>0.88</v>
       </c>
       <c r="E15">
-        <v>0.9937357537277482</v>
+        <v>1.03</v>
       </c>
       <c r="F15">
-        <v>0.9987610763739038</v>
+        <v>0.97</v>
       </c>
       <c r="G15">
-        <v>0.9887005782855885</v>
+        <v>1.05</v>
       </c>
       <c r="H15">
-        <v>1.007014768566238</v>
+        <v>0.88</v>
       </c>
       <c r="I15">
-        <v>0.9916209876660186</v>
+        <v>1.04</v>
       </c>
       <c r="J15">
-        <v>0.9985334022727835</v>
+        <v>0.98</v>
       </c>
       <c r="K15">
-        <v>0.9936549612475647</v>
+        <v>1.02</v>
       </c>
       <c r="L15">
-        <v>1.003704018784757</v>
+        <v>0.93</v>
       </c>
       <c r="M15">
-        <v>0.988683833380539</v>
+        <v>1.05</v>
       </c>
       <c r="N15">
-        <v>1.000375261146993</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="O15">
-        <v>0.9970530442383696</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="P15">
-        <v>0.9969656933655753</v>
+        <v>0.9875</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.017836229172445</v>
+        <v>1.027383881113601</v>
       </c>
       <c r="D16">
-        <v>0.9693240780005307</v>
+        <v>0.9284752195584015</v>
       </c>
       <c r="E16">
-        <v>1.001663222238789</v>
+        <v>1.0161953855488</v>
       </c>
       <c r="F16">
-        <v>0.9890050030055959</v>
+        <v>0.9811515291647975</v>
       </c>
       <c r="G16">
-        <v>1.017836229172445</v>
+        <v>1.027383881113601</v>
       </c>
       <c r="H16">
-        <v>0.9693240780005307</v>
+        <v>0.9284752195584015</v>
       </c>
       <c r="I16">
-        <v>1.004589774645135</v>
+        <v>1.021377517158403</v>
       </c>
       <c r="J16">
-        <v>0.989498624285204</v>
+        <v>0.9866541541375996</v>
       </c>
       <c r="K16">
-        <v>1.002788951005242</v>
+        <v>1.010116985446401</v>
       </c>
       <c r="L16">
-        <v>0.9785036272907998</v>
+        <v>0.9576835328000003</v>
       </c>
       <c r="M16">
-        <v>1.017836229172445</v>
+        <v>1.027378607104001</v>
       </c>
       <c r="N16">
-        <v>0.9854936501196598</v>
+        <v>0.9723353025536006</v>
       </c>
       <c r="O16">
-        <v>0.9944571331043401</v>
+        <v>0.9883015038463999</v>
       </c>
       <c r="P16">
-        <v>0.9941511887054677</v>
+        <v>0.9911297756160005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9965764334640471</v>
+      </c>
+      <c r="D17">
+        <v>0.9961980109517329</v>
+      </c>
+      <c r="E17">
+        <v>0.9959936810108171</v>
+      </c>
+      <c r="F17">
+        <v>0.9961624245911981</v>
+      </c>
+      <c r="G17">
+        <v>0.9965764334640471</v>
+      </c>
+      <c r="H17">
+        <v>0.9961980109517329</v>
+      </c>
+      <c r="I17">
+        <v>0.9960839101328827</v>
+      </c>
+      <c r="J17">
+        <v>0.9963795706054784</v>
+      </c>
+      <c r="K17">
+        <v>0.9963138739157494</v>
+      </c>
+      <c r="L17">
+        <v>0.9958953957211737</v>
+      </c>
+      <c r="M17">
+        <v>0.9965965520543926</v>
+      </c>
+      <c r="N17">
+        <v>0.996095845981275</v>
+      </c>
+      <c r="O17">
+        <v>0.9962326375044488</v>
+      </c>
+      <c r="P17">
+        <v>0.9962004125491349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9954271935575174</v>
+      </c>
+      <c r="D18">
+        <v>1.000266902656752</v>
+      </c>
+      <c r="E18">
+        <v>0.9961458348532303</v>
+      </c>
+      <c r="F18">
+        <v>0.9978621775575182</v>
+      </c>
+      <c r="G18">
+        <v>0.9954271935575174</v>
+      </c>
+      <c r="H18">
+        <v>1.000266902656752</v>
+      </c>
+      <c r="I18">
+        <v>0.9958785486955221</v>
+      </c>
+      <c r="J18">
+        <v>0.9978057357420825</v>
+      </c>
+      <c r="K18">
+        <v>0.9943564651645692</v>
+      </c>
+      <c r="L18">
+        <v>0.9974020236373923</v>
+      </c>
+      <c r="M18">
+        <v>0.9956298958088126</v>
+      </c>
+      <c r="N18">
+        <v>0.9982063687549911</v>
+      </c>
+      <c r="O18">
+        <v>0.9974255271562544</v>
+      </c>
+      <c r="P18">
+        <v>0.9968931102330729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9887005782855885</v>
+      </c>
+      <c r="D19">
+        <v>1.007014768566238</v>
+      </c>
+      <c r="E19">
+        <v>0.9937357537277482</v>
+      </c>
+      <c r="F19">
+        <v>0.9987610763739038</v>
+      </c>
+      <c r="G19">
+        <v>0.9887005782855885</v>
+      </c>
+      <c r="H19">
+        <v>1.007014768566238</v>
+      </c>
+      <c r="I19">
+        <v>0.9916209876660186</v>
+      </c>
+      <c r="J19">
+        <v>0.9985334022727835</v>
+      </c>
+      <c r="K19">
+        <v>0.9936549612475647</v>
+      </c>
+      <c r="L19">
+        <v>1.003704018784757</v>
+      </c>
+      <c r="M19">
+        <v>0.988683833380539</v>
+      </c>
+      <c r="N19">
+        <v>1.000375261146993</v>
+      </c>
+      <c r="O19">
+        <v>0.9970530442383696</v>
+      </c>
+      <c r="P19">
+        <v>0.9969656933655753</v>
       </c>
     </row>
   </sheetData>
